--- a/Assets/DataProcessing/LongtimeUse.xlsx
+++ b/Assets/DataProcessing/LongtimeUse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3DE4D6-12E4-4B4A-83E9-328E0AD0E37E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C743457-5CDA-4D68-BAC2-F33055DD83EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>wzt_2_WPM</t>
   </si>
@@ -58,12 +58,32 @@
   <si>
     <t>ljh_3_NCER</t>
   </si>
+  <si>
+    <t>0907,no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0910-no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0911-no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0909-no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905-no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +106,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -131,12 +156,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -153,6 +179,3529 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FanPad,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.1038227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.8398457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.533505399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.744343799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.137540000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.909858700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FanPad-Ov,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.0410471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.480551699999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.8977547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.769784900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.925193799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.308094000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FanPad,2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.9899855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.923588799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.8219709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0338078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0638428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0696011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FanPad-Ov,2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.451359999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.6694613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2898836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.2342358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.6747017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.054780999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1351464127"/>
+        <c:axId val="1238732815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1351464127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238732815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1238732815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>WPM</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351464127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FanPad,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.870967741935484E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7945205479452052E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1420118343195266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114503816793893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12258064516129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8014184397163122E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FanPad-Ov,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.11612903225806449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.61437908496732E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8484848484848478E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.815950920245399E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5900621118012417E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19078947368421001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FanPad,2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.20805369127516779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9290780141843976E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9645390070921988E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2631578947368418E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4871794871794872E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FanPad-Ov,2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17721518987341769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.993006993006993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0359712230215833E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2238805970149252E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8867924528301799E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6979865771812082E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1351464127"/>
+        <c:axId val="1238732815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1351464127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238732815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1238732815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>TER</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351464127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FanPad,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8493150684931503E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5502958579881658E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FanPad-Ov,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.935483870967742E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.226993865030675E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9736842105263101E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FanPad,2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FanPad-Ov,2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sorted!$B$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2893081761006197E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7114093959731542E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-07EC-4B14-8044-208FE2665B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1351464127"/>
+        <c:axId val="1238732815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1351464127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238732815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1238732815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>NCER</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351464127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8D4C4C-2F58-427A-B065-70753F78B9C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D600302-7262-4A72-9096-A0831B2B4DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA8F6F6-097D-40C2-865E-F68E25A40710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,7 +4005,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -471,14 +4020,14 @@
       <c r="C1" s="1">
         <v>13.8398457</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
+        <v>14.533505399999999</v>
+      </c>
+      <c r="E1" s="2">
+        <v>15.744343799999999</v>
+      </c>
+      <c r="F1" s="1">
         <v>17.137540000000001</v>
-      </c>
-      <c r="E1" s="2">
-        <v>14.533505399999999</v>
-      </c>
-      <c r="F1" s="2">
-        <v>15.744343799999999</v>
       </c>
       <c r="G1" s="1">
         <v>19.909858700000001</v>
@@ -530,6 +4079,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0.18038414738864</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.20272231270660401</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.16186527561889599</v>
+      </c>
+    </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>13.481775300000001</v>
@@ -582,8 +4151,8 @@
       <c r="F9" s="1">
         <v>16.925193799999999</v>
       </c>
-      <c r="G9" s="1">
-        <v>17.387243300000002</v>
+      <c r="G9" s="2">
+        <v>17.308094000000001</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -605,8 +4174,8 @@
       <c r="F10" s="1">
         <v>5.5900621118012417E-2</v>
       </c>
-      <c r="G10" s="1">
-        <v>8.2191780821917804E-2</v>
+      <c r="G10" s="2">
+        <v>0.19078947368421001</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -628,8 +4197,28 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
+      <c r="G11" s="2">
+        <v>1.9736842105263101E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.16931524426400199</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -788,6 +4377,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.13124742932935499</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.124002305555478</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.14879508075938599</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.117617645198454</v>
+      </c>
+    </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>12.5423822</v>
@@ -878,8 +4487,8 @@
       <c r="E30" s="1">
         <v>5.2238805970149252E-2</v>
       </c>
-      <c r="F30" s="1">
-        <v>0.1823899371069182</v>
+      <c r="F30" s="2">
+        <v>1.8867924528301799E-2</v>
       </c>
       <c r="G30" s="1">
         <v>4.6979865771812082E-2</v>
@@ -901,11 +4510,31 @@
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="1">
-        <v>0.169811320754717</v>
+      <c r="F31" s="2">
+        <v>6.2893081761006197E-3</v>
       </c>
       <c r="G31" s="1">
         <v>6.7114093959731542E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.10913374867265099</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.211005177023565</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.180732417063873</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
@@ -953,5 +4582,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/DataProcessing/LongtimeUse.xlsx
+++ b/Assets/DataProcessing/LongtimeUse.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C743457-5CDA-4D68-BAC2-F33055DD83EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B8B6E6-1ECA-4B0F-B834-A0EFB020F602}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="sorted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>wzt_2_WPM</t>
   </si>
@@ -78,6 +78,78 @@
     <t>0905-no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>方差分析：单因素方差分析</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>组</t>
+  </si>
+  <si>
+    <t>观测数</t>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>方差</t>
+  </si>
+  <si>
+    <t>列 1</t>
+  </si>
+  <si>
+    <t>列 2</t>
+  </si>
+  <si>
+    <t>列 3</t>
+  </si>
+  <si>
+    <t>列 4</t>
+  </si>
+  <si>
+    <t>列 5</t>
+  </si>
+  <si>
+    <t>列 6</t>
+  </si>
+  <si>
+    <t>方差分析</t>
+  </si>
+  <si>
+    <t>差异源</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>组间</t>
+  </si>
+  <si>
+    <t>组内</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -149,6 +221,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -156,13 +248,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3989,12 +4086,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>13.1038227</v>
+      </c>
+      <c r="B1" s="1">
+        <v>13.8398457</v>
+      </c>
+      <c r="C1" s="2">
+        <v>14.533505399999999</v>
+      </c>
+      <c r="D1" s="2">
+        <v>15.744343799999999</v>
+      </c>
+      <c r="E1" s="1">
+        <v>17.137540000000001</v>
+      </c>
+      <c r="F1" s="1">
+        <v>19.909858700000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10.9899855</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12.923588799999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13.8219709</v>
+      </c>
+      <c r="D2" s="1">
+        <v>14.0338078</v>
+      </c>
+      <c r="E2" s="1">
+        <v>14.0638428</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16.0696011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>24.093808199999998</v>
+      </c>
+      <c r="D14" s="4">
+        <v>12.046904099999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.2341538540519217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>26.763434499999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>13.381717249999999</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.41976335339880544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>28.355476299999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>14.17773815</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.25314067234512433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>29.778151600000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>14.889075800000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.462966703647999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>31.201382800000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>15.600691400000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.7238072386439249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>35.979459800000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>17.9897299</v>
+      </c>
+      <c r="E19" s="5">
+        <v>7.3737892171789099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4">
+        <v>41.433381444032307</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8.2866762888064613</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.0192617145052369</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.10553618935217617</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4.3873741874061292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4">
+        <v>16.46762103926666</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2.7446035065444434</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5">
+        <v>57.901002483298967</v>
+      </c>
+      <c r="C27" s="5">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4004,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" activeCellId="1" sqref="B1:G1 B20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Assets/DataProcessing/LongtimeUse.xlsx
+++ b/Assets/DataProcessing/LongtimeUse.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C743457-5CDA-4D68-BAC2-F33055DD83EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3ECCF3-B913-4930-9F83-956C57EC1BA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="sorted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -4002,10 +4002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4308,7 +4308,7 @@
         <v>3.9473684210526307E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>16.0696011</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>4.4871794871794872E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>0.117617645198454</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>12.5423822</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>13.958685900000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>8.9041095890410954E-2</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>4.6357615894039743E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>0</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>18.054780999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>4.6979865771812082E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -4516,8 +4516,26 @@
       <c r="G31" s="1">
         <v>6.7114093959731542E-3</v>
       </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>6.8493150684931503E-3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3.5502958579881658E-2</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -4536,8 +4554,26 @@
       <c r="G32" s="3">
         <v>0.180732417063873</v>
       </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>12.615107500000001</v>
       </c>
@@ -4550,8 +4586,32 @@
       <c r="F33">
         <v>13.5907488</v>
       </c>
+      <c r="J33">
+        <f>AVERAGE(J31:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:O33" si="0">AVERAGE(K31:K32)</f>
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>1.7751479289940829E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>8.666666666666667E-2</v>
       </c>
@@ -4564,8 +4624,26 @@
       <c r="F34">
         <v>6.0810810810810807E-2</v>
       </c>
+      <c r="J34">
+        <v>9.6774193548387101E-3</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>6.1349693251533752E-3</v>
+      </c>
+      <c r="N34">
+        <v>3.1446540880503099E-3</v>
+      </c>
+      <c r="O34">
+        <v>1.3224125750618128E-2</v>
+      </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>0</v>
       </c>
@@ -4577,6 +4655,27 @@
       </c>
       <c r="F35">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>1.7751479289940829E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>3.529E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>5.3600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>(24.19+22.58)/2</f>
+        <v>23.384999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataProcessing/LongtimeUse.xlsx
+++ b/Assets/DataProcessing/LongtimeUse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B8B6E6-1ECA-4B0F-B834-A0EFB020F602}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8A28D-635F-4786-B4BF-60F8351B2C27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>wzt_2_WPM</t>
   </si>
@@ -149,6 +149,132 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>dyh_2_WPM</t>
+  </si>
+  <si>
+    <t>dyh_2_TER</t>
+  </si>
+  <si>
+    <t>dyh_2_NCER</t>
+  </si>
+  <si>
+    <t>dyh_3_WPM</t>
+  </si>
+  <si>
+    <t>dyh_3_TER</t>
+  </si>
+  <si>
+    <t>dyh_3_NCER</t>
+  </si>
+  <si>
+    <t>wzt2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wzt2_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 10382</t>
+  </si>
+  <si>
+    <t>13. 83985</t>
+  </si>
+  <si>
+    <t>15. 44689</t>
+  </si>
+  <si>
+    <t>wzt3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 04105</t>
+  </si>
+  <si>
+    <t>15. 93242</t>
+  </si>
+  <si>
+    <t>16. 8413</t>
+  </si>
+  <si>
+    <t>0. 08642</t>
+  </si>
+  <si>
+    <t>wzt3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 00674</t>
+  </si>
+  <si>
+    <t>0. 158228</t>
+  </si>
+  <si>
+    <t>16. 0696</t>
+  </si>
+  <si>
+    <t>ljh_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 45136</t>
+  </si>
+  <si>
+    <t>0. 05036</t>
+  </si>
+  <si>
+    <t>0. 04698</t>
+  </si>
+  <si>
+    <t>dyh3_ 1</t>
+  </si>
+  <si>
+    <t>0. 03125</t>
+  </si>
+  <si>
+    <t>0. 02027</t>
+  </si>
+  <si>
+    <t>dyh3_ _2</t>
+  </si>
+  <si>
+    <t>0. 08871</t>
+  </si>
+  <si>
+    <t>ljh_2</t>
+  </si>
+  <si>
+    <t>wzt2_1</t>
+  </si>
+  <si>
+    <t>wzt2_2</t>
+  </si>
+  <si>
+    <t>wzt3_1</t>
+  </si>
+  <si>
+    <t>wzt3_2</t>
+  </si>
+  <si>
+    <t>ljh_3</t>
+  </si>
+  <si>
+    <t>wzt3_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyh3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyh3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4086,274 +4212,2282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="8.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>13.1038227</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1">
+        <v>13.481775300000001</v>
+      </c>
+      <c r="D1">
         <v>13.8398457</v>
       </c>
-      <c r="C1" s="2">
+      <c r="E1">
         <v>14.533505399999999</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F1">
+        <v>15.446892699999999</v>
+      </c>
+      <c r="G1">
         <v>15.744343799999999</v>
       </c>
-      <c r="E1" s="1">
+      <c r="H1">
         <v>17.137540000000001</v>
       </c>
-      <c r="F1" s="1">
+      <c r="I1">
+        <v>18.6043129</v>
+      </c>
+      <c r="J1">
+        <v>19.218019999999999</v>
+      </c>
+      <c r="K1">
+        <v>19.891403199999999</v>
+      </c>
+      <c r="L1">
         <v>19.909858700000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="M1">
+        <v>20.435367599999999</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>13.1038227</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>13.8398457</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>14.533505399999999</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>15.744343799999999</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>17.137540000000001</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>19.909858700000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.870967741935484E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.2944785276073622E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.7945205479452052E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.1145038167938931</v>
+      </c>
+      <c r="F2">
+        <v>7.9136690647482008E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.1225806451612903</v>
+      </c>
+      <c r="H2">
+        <v>0.1420118343195266</v>
+      </c>
+      <c r="I2">
+        <v>8.1967213114754092E-2</v>
+      </c>
+      <c r="J2">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.1027397260273973</v>
+      </c>
+      <c r="L2">
+        <v>7.8014184397163122E-2</v>
+      </c>
+      <c r="M2">
+        <v>6.2111801242236017E-2</v>
+      </c>
+      <c r="AB2" s="1">
         <v>10.9899855</v>
       </c>
-      <c r="B2" s="1">
+      <c r="AC2" s="1">
         <v>12.923588799999999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="AD2" s="1">
         <v>13.8219709</v>
       </c>
-      <c r="D2" s="1">
+      <c r="AE2" s="1">
         <v>14.0338078</v>
       </c>
-      <c r="E2" s="1">
+      <c r="AF2" s="1">
         <v>14.0638428</v>
       </c>
-      <c r="F2" s="1">
+      <c r="AG2" s="1">
         <v>16.0696011</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>6.8493150684931503E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.5502958579881658E-2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6.2111801242236021E-3</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.4844720496894412E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10.418690700000001</v>
+      </c>
+      <c r="C4">
+        <v>12.0410471</v>
+      </c>
+      <c r="D4">
+        <v>12.2164669</v>
+      </c>
+      <c r="E4">
+        <v>12.9266758</v>
+      </c>
+      <c r="F4">
+        <v>13.923426600000001</v>
+      </c>
+      <c r="G4">
+        <v>14.006744400000001</v>
+      </c>
+      <c r="H4">
+        <v>14.480551699999999</v>
+      </c>
+      <c r="I4">
+        <v>15.05729</v>
+      </c>
+      <c r="J4">
+        <v>15.0620852</v>
+      </c>
+      <c r="K4">
+        <v>15.120524400000001</v>
+      </c>
+      <c r="L4">
+        <v>15.427315699999999</v>
+      </c>
+      <c r="M4">
+        <v>15.648961999999999</v>
+      </c>
+      <c r="N4">
+        <v>15.8977547</v>
+      </c>
+      <c r="O4">
+        <v>15.932417900000001</v>
+      </c>
+      <c r="P4">
+        <v>16.568506200000002</v>
+      </c>
+      <c r="Q4">
+        <v>16.769784900000001</v>
+      </c>
+      <c r="R4">
+        <v>16.8413</v>
+      </c>
+      <c r="S4">
+        <v>16.925193799999999</v>
+      </c>
+      <c r="T4">
+        <v>17.308094000000001</v>
+      </c>
+      <c r="U4">
+        <v>17.387243300000002</v>
+      </c>
+      <c r="V4">
+        <v>17.511066400000001</v>
+      </c>
+      <c r="W4">
+        <v>19.564508400000001</v>
+      </c>
+      <c r="X4">
+        <v>20.105234100000001</v>
+      </c>
+      <c r="Y4">
+        <v>20.286180000000002</v>
+      </c>
+      <c r="Z4">
+        <v>22.577154199999999</v>
+      </c>
+      <c r="AA4">
+        <v>24.190816900000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.11612903225806449</v>
+      </c>
+      <c r="D5">
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="E5">
+        <v>7.1942446043165471E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.15822784810126581</v>
+      </c>
+      <c r="H5">
+        <v>2.61437908496732E-2</v>
+      </c>
+      <c r="I5">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="J5">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K5">
+        <v>8.6419753086419748E-2</v>
+      </c>
+      <c r="L5">
+        <v>5.9602649006622523E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.1132075471698113</v>
+      </c>
+      <c r="N5">
+        <v>4.8484848484848478E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.12658227848101269</v>
+      </c>
+      <c r="P5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>9.815950920245399E-2</v>
+      </c>
+      <c r="R5">
+        <v>9.8484848484848481E-2</v>
+      </c>
+      <c r="S5">
+        <v>5.5900621118012417E-2</v>
+      </c>
+      <c r="T5">
+        <v>0.19078947368421051</v>
+      </c>
+      <c r="U5">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="V5">
+        <v>0.18421052631578949</v>
+      </c>
+      <c r="W5">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="X5">
+        <v>9.6551724137931033E-2</v>
+      </c>
+      <c r="Y5">
+        <v>5.4421768707482991E-2</v>
+      </c>
+      <c r="Z5">
+        <v>7.2463768115942032E-2</v>
+      </c>
+      <c r="AA5">
+        <v>3.8216560509554139E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1.935483870967742E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.3529411764705881E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="G6">
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="J6">
+        <v>6.4935064935064939E-3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="P6">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.226993865030675E-2</v>
+      </c>
+      <c r="R6">
+        <v>2.2727272727272731E-2</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1.973684210526316E-2</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>3.9473684210526307E-2</v>
+      </c>
+      <c r="W6">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="X6">
+        <v>6.8965517241379309E-3</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>2.1739130434782612E-2</v>
+      </c>
+      <c r="AA6">
+        <v>6.369426751592357E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10.9899855</v>
+      </c>
+      <c r="C7">
+        <v>12.5423822</v>
+      </c>
+      <c r="D7">
+        <v>12.923588799999999</v>
+      </c>
+      <c r="E7">
+        <v>13.1019945</v>
+      </c>
+      <c r="F7">
+        <v>13.465670599999999</v>
+      </c>
+      <c r="G7">
+        <v>13.5154686</v>
+      </c>
+      <c r="H7">
+        <v>13.8219709</v>
+      </c>
+      <c r="I7">
+        <v>13.958685900000001</v>
+      </c>
+      <c r="J7">
+        <v>14.0338078</v>
+      </c>
+      <c r="K7">
+        <v>14.0638428</v>
+      </c>
+      <c r="L7">
+        <v>16.0696011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.20805369127516779</v>
+      </c>
+      <c r="C8">
+        <v>8.9041095890410954E-2</v>
+      </c>
+      <c r="D8">
+        <v>9.9290780141843976E-2</v>
+      </c>
+      <c r="E8">
+        <v>8.4507042253521125E-2</v>
+      </c>
+      <c r="F8">
+        <v>4.4871794871794872E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.9645390070921988E-2</v>
+      </c>
+      <c r="I8">
+        <v>4.6357615894039743E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K8">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L8">
+        <v>4.4871794871794872E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1.408450704225352E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.41025641025641E-3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>11.451359999999999</v>
+      </c>
+      <c r="C10">
+        <v>12.615107500000001</v>
+      </c>
+      <c r="D10">
+        <v>13.070220000000001</v>
+      </c>
+      <c r="E10">
+        <v>13.231215499999999</v>
+      </c>
+      <c r="F10">
+        <v>13.5907488</v>
+      </c>
+      <c r="G10">
+        <v>13.6694613</v>
+      </c>
+      <c r="H10">
+        <v>14.2898836</v>
+      </c>
+      <c r="I10">
+        <v>15.2342358</v>
+      </c>
+      <c r="J10">
+        <v>17.6747017</v>
+      </c>
+      <c r="K10">
+        <v>18.054780999999998</v>
+      </c>
+      <c r="AB10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="C11">
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.10759493670886081</v>
+      </c>
+      <c r="E11">
+        <v>7.0921985815602844E-3</v>
+      </c>
+      <c r="F11">
+        <v>6.0810810810810807E-2</v>
+      </c>
+      <c r="G11">
+        <v>6.993006993006993E-3</v>
+      </c>
+      <c r="H11">
+        <v>5.0359712230215833E-2</v>
+      </c>
+      <c r="I11">
+        <v>5.2238805970149252E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.886792452830189E-2</v>
+      </c>
+      <c r="K11">
+        <v>4.6979865771812082E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>6.2893081761006293E-3</v>
+      </c>
+      <c r="K12">
+        <v>6.7114093959731542E-3</v>
+      </c>
+      <c r="AB12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>7.9134950000000002</v>
+      </c>
+      <c r="C13">
+        <v>9.0767330000000008</v>
+      </c>
+      <c r="D13">
+        <v>9.7048900000000007</v>
+      </c>
+      <c r="E13">
+        <v>9.9890059999999998</v>
+      </c>
+      <c r="F13">
+        <v>11.186862899999999</v>
+      </c>
+      <c r="G13">
+        <v>11.465888</v>
+      </c>
+      <c r="H13">
+        <v>11.685460000000001</v>
+      </c>
+      <c r="I13">
+        <v>12.4029074</v>
+      </c>
+      <c r="J13">
+        <v>12.5237131</v>
+      </c>
+      <c r="K13">
+        <v>12.9736013</v>
+      </c>
+      <c r="L13">
+        <v>13.051285699999999</v>
+      </c>
+      <c r="M13">
+        <v>13.711882599999999</v>
+      </c>
+      <c r="N13">
+        <v>13.8229647</v>
+      </c>
+      <c r="O13">
+        <v>14.0913763</v>
+      </c>
+      <c r="P13">
+        <v>14.755774499999999</v>
+      </c>
+      <c r="Q13">
+        <v>15.0914669</v>
+      </c>
+      <c r="R13">
+        <v>15.2553053</v>
+      </c>
+      <c r="S13">
+        <v>16.868600000000001</v>
+      </c>
+      <c r="T13">
+        <v>17.132380000000001</v>
+      </c>
+      <c r="AB13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="AC13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="AD13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="AE13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>0.21088435374149661</v>
+      </c>
+      <c r="C14">
+        <v>7.7519379844961239E-2</v>
+      </c>
+      <c r="D14">
+        <v>5.6818181818181823E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="F14">
+        <v>0.1103448275862069</v>
+      </c>
+      <c r="G14">
+        <v>4.8192771084337352E-2</v>
+      </c>
+      <c r="H14">
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="I14">
+        <v>2.097902097902098E-2</v>
+      </c>
+      <c r="J14">
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="K14">
+        <v>3.4246575342465752E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.05</v>
+      </c>
+      <c r="M14">
+        <v>4.4585987261146487E-2</v>
+      </c>
+      <c r="N14">
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="O14">
+        <v>5.7553956834532377E-2</v>
+      </c>
+      <c r="P14">
+        <v>7.1856287425149698E-2</v>
+      </c>
+      <c r="Q14">
+        <v>4.72972972972973E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="S14">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="T14">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="AB14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
+      <c r="AC14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="AD14" s="4">
         <v>24.093808199999998</v>
       </c>
-      <c r="D14" s="4">
+      <c r="AE14" s="4">
         <v>12.046904099999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="AF14" s="4">
         <v>2.2341538540519217</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>2.7210884353741499E-2</v>
+      </c>
+      <c r="C15">
+        <v>7.7519379844961239E-3</v>
+      </c>
+      <c r="D15">
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.3846153846153849E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.758620689655172E-2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>6.993006993006993E-3</v>
+      </c>
+      <c r="J15">
+        <v>2.5157232704402521E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="L15">
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="M15">
+        <v>2.5477707006369432E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.1582733812949641E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.4388489208633091E-2</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>3.3783783783783793E-2</v>
+      </c>
+      <c r="R15">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="S15">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="T15">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="AB15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4">
+      <c r="AC15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="AD15" s="4">
         <v>26.763434499999999</v>
       </c>
-      <c r="D15" s="4">
+      <c r="AE15" s="4">
         <v>13.381717249999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="AF15" s="4">
         <v>0.41976335339880544</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>8.1447400000000005</v>
+      </c>
+      <c r="C16">
+        <v>8.3088040000000003</v>
+      </c>
+      <c r="D16">
+        <v>9.4187329999999996</v>
+      </c>
+      <c r="E16">
+        <v>11.0847836</v>
+      </c>
+      <c r="F16">
+        <v>11.1447105</v>
+      </c>
+      <c r="G16">
+        <v>11.8776207</v>
+      </c>
+      <c r="H16">
+        <v>13.2438383</v>
+      </c>
+      <c r="I16">
+        <v>13.3042622</v>
+      </c>
+      <c r="J16">
+        <v>13.756159999999999</v>
+      </c>
+      <c r="K16">
+        <v>13.9995241</v>
+      </c>
+      <c r="L16">
+        <v>14.0354166</v>
+      </c>
+      <c r="M16">
+        <v>14.082935300000001</v>
+      </c>
+      <c r="N16">
+        <v>14.250885999999999</v>
+      </c>
+      <c r="O16">
+        <v>14.6094074</v>
+      </c>
+      <c r="P16">
+        <v>14.6750641</v>
+      </c>
+      <c r="Q16">
+        <v>14.938514700000001</v>
+      </c>
+      <c r="R16">
+        <v>15.285921099999999</v>
+      </c>
+      <c r="S16">
+        <v>15.441606500000001</v>
+      </c>
+      <c r="T16">
+        <v>15.594026599999999</v>
+      </c>
+      <c r="U16">
+        <v>15.7522936</v>
+      </c>
+      <c r="V16">
+        <v>15.808450000000001</v>
+      </c>
+      <c r="W16">
+        <v>15.819425600000001</v>
+      </c>
+      <c r="X16">
+        <v>17.005721999999999</v>
+      </c>
+      <c r="AB16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4">
+      <c r="AC16" s="4">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="AD16" s="4">
         <v>28.355476299999999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="AE16" s="4">
         <v>14.17773815</v>
       </c>
-      <c r="E16" s="4">
+      <c r="AF16" s="4">
         <v>0.25314067234512433</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>0.112781954887218</v>
+      </c>
+      <c r="C17">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="D17">
+        <v>7.8014184397163122E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.12658227848101269</v>
+      </c>
+      <c r="F17">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="G17">
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="H17">
+        <v>6.2068965517241378E-2</v>
+      </c>
+      <c r="I17">
+        <v>2.1126760563380281E-2</v>
+      </c>
+      <c r="J17">
+        <v>8.8709677419354843E-2</v>
+      </c>
+      <c r="K17">
+        <v>4.7058823529411757E-2</v>
+      </c>
+      <c r="L17">
+        <v>9.2105263157894732E-2</v>
+      </c>
+      <c r="M17">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="N17">
+        <v>4.72972972972973E-2</v>
+      </c>
+      <c r="O17">
+        <v>3.125E-2</v>
+      </c>
+      <c r="P17">
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="Q17">
+        <v>0.13207547169811321</v>
+      </c>
+      <c r="R17">
+        <v>1.935483870967742E-2</v>
+      </c>
+      <c r="S17">
+        <v>2.0270270270270271E-2</v>
+      </c>
+      <c r="T17">
+        <v>2.1126760563380281E-2</v>
+      </c>
+      <c r="U17">
+        <v>2.0689655172413789E-2</v>
+      </c>
+      <c r="V17">
+        <v>3.2786885245901641E-2</v>
+      </c>
+      <c r="W17">
+        <v>1.4388489208633091E-2</v>
+      </c>
+      <c r="X17">
+        <v>2.758620689655172E-2</v>
+      </c>
+      <c r="AB17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4">
+      <c r="AC17" s="4">
         <v>2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="AD17" s="4">
         <v>29.778151600000001</v>
       </c>
-      <c r="D17" s="4">
+      <c r="AE17" s="4">
         <v>14.889075800000001</v>
       </c>
-      <c r="E17" s="4">
+      <c r="AF17" s="4">
         <v>1.462966703647999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>3.007518796992481E-2</v>
+      </c>
+      <c r="C18">
+        <v>5.8823529411764712E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.4184397163120571E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.1012658227848101</v>
+      </c>
+      <c r="F18">
+        <v>7.575757575757576E-3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2.758620689655172E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.408450704225352E-2</v>
+      </c>
+      <c r="J18">
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K18">
+        <v>1.1764705882352939E-2</v>
+      </c>
+      <c r="L18">
+        <v>3.9473684210526307E-2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Q18">
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="R18">
+        <v>1.935483870967742E-2</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>2.1126760563380281E-2</v>
+      </c>
+      <c r="U18">
+        <v>6.8965517241379309E-3</v>
+      </c>
+      <c r="V18">
+        <v>3.2786885245901641E-2</v>
+      </c>
+      <c r="W18">
+        <v>7.1942446043165471E-3</v>
+      </c>
+      <c r="X18">
+        <v>2.758620689655172E-2</v>
+      </c>
+      <c r="AB18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4">
+      <c r="AC18" s="4">
         <v>2</v>
       </c>
-      <c r="C18" s="4">
+      <c r="AD18" s="4">
         <v>31.201382800000001</v>
       </c>
-      <c r="D18" s="4">
+      <c r="AE18" s="4">
         <v>15.600691400000001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="AF18" s="4">
         <v>4.7238072386439249</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="AC19" s="5">
         <v>2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="AD19" s="5">
         <v>35.979459800000001</v>
       </c>
-      <c r="D19" s="5">
+      <c r="AE19" s="5">
         <v>17.9897299</v>
       </c>
-      <c r="E19" s="5">
+      <c r="AF19" s="5">
         <v>7.3737892171789099</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>13.481780000000001</v>
+      </c>
+      <c r="C22">
+        <v>14.53351</v>
+      </c>
+      <c r="D22">
+        <v>15.744339999999999</v>
+      </c>
+      <c r="E22">
+        <v>18.604310000000002</v>
+      </c>
+      <c r="F22">
+        <v>19.891400000000001</v>
+      </c>
+      <c r="G22">
+        <v>20.435369999999999</v>
+      </c>
+      <c r="AB22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4.2944999999999997E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.11450399999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.122581</v>
+      </c>
+      <c r="E23">
+        <v>8.1966999999999998E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.10274</v>
+      </c>
+      <c r="G23">
+        <v>6.2112000000000001E-2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23">
+        <v>13.481780000000001</v>
+      </c>
+      <c r="S23">
+        <v>14.53351</v>
+      </c>
+      <c r="T23">
+        <v>15.744339999999999</v>
+      </c>
+      <c r="U23">
+        <v>18.604310000000002</v>
+      </c>
+      <c r="V23">
+        <v>19.891400000000001</v>
+      </c>
+      <c r="W23">
+        <v>20.435369999999999</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="AC23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="AE23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="AG23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="AH23" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.4844999999999999E-2</v>
+      </c>
+      <c r="R24">
+        <v>4.2944999999999997E-2</v>
+      </c>
+      <c r="S24">
+        <v>0.11450399999999999</v>
+      </c>
+      <c r="T24">
+        <v>0.122581</v>
+      </c>
+      <c r="U24">
+        <v>8.1966999999999998E-2</v>
+      </c>
+      <c r="V24">
+        <v>0.10274</v>
+      </c>
+      <c r="W24">
+        <v>6.2112000000000001E-2</v>
+      </c>
+      <c r="AB24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="4">
+      <c r="AC24" s="4">
         <v>41.433381444032307</v>
       </c>
-      <c r="C24" s="4">
+      <c r="AD24" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="AE24" s="4">
         <v>8.2866762888064613</v>
       </c>
-      <c r="E24" s="4">
+      <c r="AF24" s="4">
         <v>3.0192617145052369</v>
       </c>
-      <c r="F24" s="4">
+      <c r="AG24" s="4">
         <v>0.10553618935217617</v>
       </c>
-      <c r="G24" s="4">
+      <c r="AH24" s="4">
         <v>4.3873741874061292</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>13.103820000000001</v>
+      </c>
+      <c r="C25">
+        <v>13.83985</v>
+      </c>
+      <c r="D25">
+        <v>15.44689</v>
+      </c>
+      <c r="E25">
+        <v>17.137540000000001</v>
+      </c>
+      <c r="F25">
+        <v>19.218019999999999</v>
+      </c>
+      <c r="G25">
+        <v>19.909859999999998</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>2.4844999999999999E-2</v>
+      </c>
+      <c r="AB25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="4">
+      <c r="AC25" s="4">
         <v>16.46762103926666</v>
       </c>
-      <c r="C25" s="4">
+      <c r="AD25" s="4">
         <v>6</v>
       </c>
-      <c r="D25" s="4">
+      <c r="AE25" s="4">
         <v>2.7446035065444434</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3.8710000000000001E-2</v>
+      </c>
+      <c r="C26">
+        <v>4.7945000000000002E-2</v>
+      </c>
+      <c r="D26">
+        <v>7.9136999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.142012</v>
+      </c>
+      <c r="F26">
+        <v>8.6957000000000007E-2</v>
+      </c>
+      <c r="G26">
+        <v>7.8014E-2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>72</v>
+      </c>
+      <c r="R26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26" t="s">
+        <v>50</v>
+      </c>
+      <c r="T26" t="s">
+        <v>51</v>
+      </c>
+      <c r="U26">
+        <v>17.137540000000001</v>
+      </c>
+      <c r="V26">
+        <v>19.218019999999999</v>
+      </c>
+      <c r="W26">
+        <v>19.909859999999998</v>
+      </c>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+    </row>
+    <row r="27" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>6.8490000000000001E-3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3.5503E-2</v>
+      </c>
+      <c r="F27">
+        <v>6.2110000000000004E-3</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>3.8710000000000001E-2</v>
+      </c>
+      <c r="S27">
+        <v>4.7945000000000002E-2</v>
+      </c>
+      <c r="T27">
+        <v>7.9136999999999999E-2</v>
+      </c>
+      <c r="U27">
+        <v>0.142012</v>
+      </c>
+      <c r="V27">
+        <v>8.6957000000000007E-2</v>
+      </c>
+      <c r="W27">
+        <v>7.8014E-2</v>
+      </c>
+      <c r="AB27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="5">
+      <c r="AC27" s="5">
         <v>57.901002483298967</v>
       </c>
-      <c r="C27" s="5">
+      <c r="AD27" s="5">
         <v>11</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>12.0410471</v>
+      </c>
+      <c r="C28">
+        <v>14.006744400000001</v>
+      </c>
+      <c r="D28">
+        <v>15.120524400000001</v>
+      </c>
+      <c r="E28">
+        <v>16.769784900000001</v>
+      </c>
+      <c r="F28">
+        <v>17.387243300000002</v>
+      </c>
+      <c r="G28">
+        <v>20.105234100000001</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>6.8490000000000001E-3</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>3.5503E-2</v>
+      </c>
+      <c r="V28">
+        <v>6.2110000000000004E-3</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.11612903225806449</v>
+      </c>
+      <c r="C29">
+        <v>0.15822784810126581</v>
+      </c>
+      <c r="D29">
+        <v>8.6419753086419748E-2</v>
+      </c>
+      <c r="E29">
+        <v>9.815950920245399E-2</v>
+      </c>
+      <c r="F29">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="G29">
+        <v>9.6551724137931033E-2</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" t="s">
+        <v>53</v>
+      </c>
+      <c r="S29">
+        <v>14.480549999999999</v>
+      </c>
+      <c r="T29">
+        <v>15.120520000000001</v>
+      </c>
+      <c r="U29" t="s">
+        <v>54</v>
+      </c>
+      <c r="V29" t="s">
+        <v>55</v>
+      </c>
+      <c r="W29">
+        <v>17.51107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1.935483870967742E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1.226993865030675E-2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>6.8965517241379309E-3</v>
+      </c>
+      <c r="R30">
+        <v>0.116129</v>
+      </c>
+      <c r="S30">
+        <v>2.6144000000000001E-2</v>
+      </c>
+      <c r="T30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U30">
+        <v>0.126582</v>
+      </c>
+      <c r="V30">
+        <v>9.8485000000000003E-2</v>
+      </c>
+      <c r="W30">
+        <v>0.18421100000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>14.480551699999999</v>
+      </c>
+      <c r="C31">
+        <v>16.568506200000002</v>
+      </c>
+      <c r="D31">
+        <v>17.387243300000002</v>
+      </c>
+      <c r="E31">
+        <v>19.564508400000001</v>
+      </c>
+      <c r="F31">
+        <v>22.577154199999999</v>
+      </c>
+      <c r="G31">
+        <v>24.190816900000002</v>
+      </c>
+      <c r="R31">
+        <v>1.9355000000000001E-2</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1.2658000000000001E-2</v>
+      </c>
+      <c r="V31">
+        <v>2.2727000000000001E-2</v>
+      </c>
+      <c r="W31">
+        <v>3.9474000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2.61437908496732E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D32">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="F32">
+        <v>7.2463768115942032E-2</v>
+      </c>
+      <c r="G32">
+        <v>3.8216560509554139E-2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>74</v>
+      </c>
+      <c r="R32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S32">
+        <v>15.05729</v>
+      </c>
+      <c r="T32">
+        <v>15.93242</v>
+      </c>
+      <c r="U32">
+        <v>17.387239999999998</v>
+      </c>
+      <c r="V32">
+        <v>19.564509999999999</v>
+      </c>
+      <c r="W32">
+        <v>22.57715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F33">
+        <v>2.1739130434782612E-2</v>
+      </c>
+      <c r="G33">
+        <v>6.369426751592357E-3</v>
+      </c>
+      <c r="R33" t="s">
+        <v>59</v>
+      </c>
+      <c r="S33">
+        <v>9.7222000000000003E-2</v>
+      </c>
+      <c r="T33">
+        <v>0.126582</v>
+      </c>
+      <c r="U33">
+        <v>8.2192000000000001E-2</v>
+      </c>
+      <c r="V33">
+        <v>0.152778</v>
+      </c>
+      <c r="W33">
+        <v>7.2464000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>12.2164669</v>
+      </c>
+      <c r="C34">
+        <v>13.923426600000001</v>
+      </c>
+      <c r="D34">
+        <v>15.648961999999999</v>
+      </c>
+      <c r="E34">
+        <v>16.925193799999999</v>
+      </c>
+      <c r="F34">
+        <v>17.308094000000001</v>
+      </c>
+      <c r="G34">
+        <v>20.286180000000002</v>
+      </c>
+      <c r="R34">
+        <v>2.5316000000000002E-2</v>
+      </c>
+      <c r="S34">
+        <v>6.9439999999999997E-3</v>
+      </c>
+      <c r="T34">
+        <v>1.2658000000000001E-2</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>4.8611000000000001E-2</v>
+      </c>
+      <c r="W34">
+        <v>2.1739000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.1132075471698113</v>
+      </c>
+      <c r="E35">
+        <v>5.5900621118012417E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.19078947368421051</v>
+      </c>
+      <c r="G35">
+        <v>5.4421768707482991E-2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>70</v>
+      </c>
+      <c r="R35">
+        <v>10.989990000000001</v>
+      </c>
+      <c r="S35">
+        <v>12.54238</v>
+      </c>
+      <c r="T35">
+        <v>13.101990000000001</v>
+      </c>
+      <c r="U35">
+        <v>13.82197</v>
+      </c>
+      <c r="V35">
+        <v>14.033810000000001</v>
+      </c>
+      <c r="W35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>7.3529411764705881E-3</v>
+      </c>
+      <c r="C36">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1.973684210526316E-2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0.20805399999999999</v>
+      </c>
+      <c r="S36">
+        <v>8.9040999999999995E-2</v>
+      </c>
+      <c r="T36">
+        <v>8.4506999999999999E-2</v>
+      </c>
+      <c r="U36">
+        <v>4.9645000000000002E-2</v>
+      </c>
+      <c r="V36">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="W36">
+        <v>4.4872000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>11.451359999999999</v>
+      </c>
+      <c r="C37">
+        <v>13.070220000000001</v>
+      </c>
+      <c r="D37">
+        <v>14.28988</v>
+      </c>
+      <c r="E37">
+        <v>15.23424</v>
+      </c>
+      <c r="F37">
+        <v>17.674700000000001</v>
+      </c>
+      <c r="G37">
+        <v>18.054780000000001</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>1.4085E-2</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.17721500000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.107595</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <v>5.2239000000000001E-2</v>
+      </c>
+      <c r="F38">
+        <v>1.8867999999999999E-2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R38" t="s">
+        <v>62</v>
+      </c>
+      <c r="S38">
+        <v>13.070220000000001</v>
+      </c>
+      <c r="T38">
+        <v>14.28988</v>
+      </c>
+      <c r="U38">
+        <v>15.23424</v>
+      </c>
+      <c r="V38">
+        <v>17.674700000000001</v>
+      </c>
+      <c r="W38">
+        <v>18.054780000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1.2658000000000001E-2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>6.2890000000000003E-3</v>
+      </c>
+      <c r="G39">
+        <v>6.711E-3</v>
+      </c>
+      <c r="R39">
+        <v>0.17721500000000001</v>
+      </c>
+      <c r="S39">
+        <v>0.107595</v>
+      </c>
+      <c r="T39" t="s">
+        <v>63</v>
+      </c>
+      <c r="U39">
+        <v>5.2239000000000001E-2</v>
+      </c>
+      <c r="V39">
+        <v>1.8867999999999999E-2</v>
+      </c>
+      <c r="W39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>11.685460000000001</v>
+      </c>
+      <c r="C40">
+        <v>13.051285699999999</v>
+      </c>
+      <c r="D40">
+        <v>14.6750641</v>
+      </c>
+      <c r="E40">
+        <v>15.2553053</v>
+      </c>
+      <c r="F40">
+        <v>16.868600000000001</v>
+      </c>
+      <c r="G40">
+        <v>17.132380000000001</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>1.2658000000000001E-2</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>6.2890000000000003E-3</v>
+      </c>
+      <c r="W40">
+        <v>6.711E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.05</v>
+      </c>
+      <c r="D41">
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="E41">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="F41">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="G41">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="D42">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E42">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="G42">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43">
+        <v>11.14471</v>
+      </c>
+      <c r="C43">
+        <v>13.243840000000001</v>
+      </c>
+      <c r="D43">
+        <v>14.082940000000001</v>
+      </c>
+      <c r="E43">
+        <v>14.60941</v>
+      </c>
+      <c r="F43">
+        <v>15.441610000000001</v>
+      </c>
+      <c r="G43">
+        <v>17.00572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>6.8182000000000006E-2</v>
+      </c>
+      <c r="C44">
+        <v>6.2068999999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>5.8333000000000003E-2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44">
+        <v>2.7585999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>7.5760000000000003E-3</v>
+      </c>
+      <c r="C45">
+        <v>2.7585999999999999E-2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2.7585999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>65</v>
+      </c>
+      <c r="R47">
+        <v>11.14471</v>
+      </c>
+      <c r="S47">
+        <v>13.243840000000001</v>
+      </c>
+      <c r="T47">
+        <v>14.082940000000001</v>
+      </c>
+      <c r="U47">
+        <v>14.60941</v>
+      </c>
+      <c r="V47">
+        <v>15.441610000000001</v>
+      </c>
+      <c r="W47">
+        <v>17.00572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>6.8182000000000006E-2</v>
+      </c>
+      <c r="S48">
+        <v>6.2068999999999999E-2</v>
+      </c>
+      <c r="T48">
+        <v>5.8333000000000003E-2</v>
+      </c>
+      <c r="U48" t="s">
+        <v>66</v>
+      </c>
+      <c r="V48" t="s">
+        <v>67</v>
+      </c>
+      <c r="W48">
+        <v>2.7585999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>7.5760000000000003E-3</v>
+      </c>
+      <c r="S49">
+        <v>2.7585999999999999E-2</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>2.7585999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50">
+        <f>AVERAGE(B22,B25,B28,B31,B34,B37,B40,B43)</f>
+        <v>12.450649462499999</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:G50" si="0">AVERAGE(C22,C25,C28,C31,C34,C37,C40,C43)</f>
+        <v>14.029672862500002</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>15.299480474999999</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>16.762536550000004</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>18.295852687499998</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>19.640042625000003</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>68</v>
+      </c>
+      <c r="R50">
+        <v>11.87762</v>
+      </c>
+      <c r="S50">
+        <v>13.756159999999999</v>
+      </c>
+      <c r="T50">
+        <v>14.25089</v>
+      </c>
+      <c r="U50">
+        <v>15.285920000000001</v>
+      </c>
+      <c r="V50">
+        <v>17.00572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" ref="B51:G51" si="1">AVERAGE(B23,B26,B29,B32,B35,B38,B41,B44)</f>
+        <v>7.3173114526215832E-2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>9.108427267932491E-2</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>8.7886202058783169E-2</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>8.6641915442606313E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>8.0090362739765969E-2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>5.4899901946991535E-2</v>
+      </c>
+      <c r="R51">
+        <v>6.5359E-2</v>
+      </c>
+      <c r="S51" t="s">
+        <v>69</v>
+      </c>
+      <c r="T51">
+        <v>4.7296999999999999E-2</v>
+      </c>
+      <c r="U51">
+        <v>1.9355000000000001E-2</v>
+      </c>
+      <c r="V51">
+        <v>2.7585999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" ref="B52:G52" si="2">AVERAGE(B24,B27,B30,B33,B36,B39,B42,B45)</f>
+        <v>4.2854724857685012E-3</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>1.7808622438215793E-2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>1.4001131220177234E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>7.5748111370421457E-3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>1.0763326076589573E-2</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>8.0649999999999993E-3</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1.9355000000000001E-2</v>
+      </c>
+      <c r="V52">
+        <v>2.7585999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/DataProcessing/LongtimeUse.xlsx
+++ b/Assets/DataProcessing/LongtimeUse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8A28D-635F-4786-B4BF-60F8351B2C27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D3CA7-92CF-4E92-AD17-B353881E0BEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>wzt_2_WPM</t>
   </si>
@@ -177,88 +177,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>13. 10382</t>
-  </si>
-  <si>
-    <t>13. 83985</t>
-  </si>
-  <si>
-    <t>15. 44689</t>
-  </si>
-  <si>
     <t>wzt3_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12. 04105</t>
-  </si>
-  <si>
-    <t>15. 93242</t>
-  </si>
-  <si>
-    <t>16. 8413</t>
-  </si>
-  <si>
-    <t>0. 08642</t>
   </si>
   <si>
     <t>wzt3_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>14. 00674</t>
-  </si>
-  <si>
-    <t>0. 158228</t>
-  </si>
-  <si>
-    <t>16. 0696</t>
-  </si>
-  <si>
     <t>ljh_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 45136</t>
   </si>
   <si>
     <t>0. 05036</t>
   </si>
   <si>
     <t>0. 04698</t>
-  </si>
-  <si>
-    <t>dyh3_ 1</t>
-  </si>
-  <si>
-    <t>0. 03125</t>
-  </si>
-  <si>
-    <t>0. 02027</t>
-  </si>
-  <si>
-    <t>dyh3_ _2</t>
-  </si>
-  <si>
-    <t>0. 08871</t>
-  </si>
-  <si>
-    <t>ljh_2</t>
-  </si>
-  <si>
-    <t>wzt2_1</t>
-  </si>
-  <si>
-    <t>wzt2_2</t>
-  </si>
-  <si>
-    <t>wzt3_1</t>
-  </si>
-  <si>
-    <t>wzt3_2</t>
-  </si>
-  <si>
-    <t>ljh_3</t>
   </si>
   <si>
     <t>wzt3_3</t>
@@ -274,6 +208,17 @@
   </si>
   <si>
     <t>ave</t>
+  </si>
+  <si>
+    <t>WPM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -405,6 +350,2537 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1296017060367454"/>
+          <c:y val="8.4844444444444431E-2"/>
+          <c:w val="0.83150940507436566"/>
+          <c:h val="0.72973333333333334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.481780000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.53351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.744339999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.604310000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.891400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.172674199999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4751-4574-9305-EB2CD2A564D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.103820000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.83985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.44689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.137540000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.218019999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.909859999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4751-4574-9305-EB2CD2A564D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.0410471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.006744400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.120524400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.8413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.387243300000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.105234100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4751-4574-9305-EB2CD2A564D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.480551699999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.769784900000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.387243300000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.564508400000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.577154199999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.190816900000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4751-4574-9305-EB2CD2A564D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$34:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.2164669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.923426600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.648961999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.925193799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.308094000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.286180000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4751-4574-9305-EB2CD2A564D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.451359999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.070220000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.28988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.23424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.674700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.054780000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4751-4574-9305-EB2CD2A564D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$40:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.685460000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.051285699999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.6750641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.2553053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.868600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.132380000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4751-4574-9305-EB2CD2A564D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$43:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.14471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.243840000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.082940000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.60941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.441610000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.00572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4751-4574-9305-EB2CD2A564D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1644528512"/>
+        <c:axId val="1433951904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1644528512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433951904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1433951904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>WPM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644528512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15980737450553723"/>
+          <c:y val="7.6229754817233222E-2"/>
+          <c:w val="0.80695425892276285"/>
+          <c:h val="0.72286889443697588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2944999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11450399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.122581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1966999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2CC2-455A-A7F5-8F1CA710FAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8710000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7945000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9136999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.142012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6957000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8014E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2CC2-455A-A7F5-8F1CA710FAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.11612903225806399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15822784810126581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6419753086419748E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8484848484848481E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2191780821917804E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6551724137931033E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2CC2-455A-A7F5-8F1CA710FAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.61437908496732E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.815950920245399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2191780821917804E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2463768115942032E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8216560509554139E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2CC2-455A-A7F5-8F1CA710FAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4117647058823532E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3333333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1132075471698113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5900621118012417E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19078947368421051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4421768707482991E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-2CC2-455A-A7F5-8F1CA710FAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17721500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2239000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8867999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-2CC2-455A-A7F5-8F1CA710FAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$41:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.1942446043165464E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.34375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7397260273972601E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-2CC2-455A-A7F5-8F1CA710FAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$44:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.8182000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2068999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8333000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.027E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7585999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-2CC2-455A-A7F5-8F1CA710FAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1814289840"/>
+        <c:axId val="1649667280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1814289840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr lang="en-US" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649667280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1649667280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>TER</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814289840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15980737450553723"/>
+          <c:y val="7.6229754817233222E-2"/>
+          <c:w val="0.80695425892276285"/>
+          <c:h val="0.72286889443697588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AFD0-432C-AF8F-3AF296E39629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8490000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5503E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2110000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AFD0-432C-AF8F-3AF296E39629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.935483870967742E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5316455696202531E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2727272727272731E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8965517241379309E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AFD0-432C-AF8F-3AF296E39629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.226993865030675E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8611111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1739130434782612E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.369426751592357E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-AFD0-432C-AF8F-3AF296E39629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$36:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.3529411764705881E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.973684210526316E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-AFD0-432C-AF8F-3AF296E39629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2658000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2890000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.711E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-AFD0-432C-AF8F-3AF296E39629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1428571428571426E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3698630136986301E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-AFD0-432C-AF8F-3AF296E39629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$45:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.5760000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7585999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7585999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-AFD0-432C-AF8F-3AF296E39629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1814289840"/>
+        <c:axId val="1649667280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1814289840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr lang="en-US" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649667280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1649667280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>NCER</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814289840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -999,7 +3475,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1592,7 +4068,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2305,6 +4781,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3814,7 +6410,1631 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>70885</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331053</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6916</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066E02C7-DD0E-44CA-90BA-B6401BD5CF09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65442</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>332142</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103541</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED32585-3C91-479A-8D1B-54952C02418D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73062</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>73062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>339762</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>88302</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C210A97-149B-4B2E-92A1-BB9FA9EDF347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4214,8 +8434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4263,6 +8483,9 @@
       <c r="M1">
         <v>20.435367599999999</v>
       </c>
+      <c r="N1">
+        <v>21.172674199999999</v>
+      </c>
       <c r="AB1" s="1">
         <v>13.1038227</v>
       </c>
@@ -4322,6 +8545,9 @@
       <c r="M2">
         <v>6.2111801242236017E-2</v>
       </c>
+      <c r="N2">
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="AB2" s="1">
         <v>10.9899855</v>
       </c>
@@ -4381,6 +8607,9 @@
       <c r="M3">
         <v>2.4844720496894412E-2</v>
       </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5391,7 +9620,7 @@
         <v>19.891400000000001</v>
       </c>
       <c r="G22">
-        <v>20.435369999999999</v>
+        <v>21.172674199999999</v>
       </c>
       <c r="AB22" t="s">
         <v>30</v>
@@ -5414,28 +9643,7 @@
         <v>0.10274</v>
       </c>
       <c r="G23">
-        <v>6.2112000000000001E-2</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23">
-        <v>13.481780000000001</v>
-      </c>
-      <c r="S23">
-        <v>14.53351</v>
-      </c>
-      <c r="T23">
-        <v>15.744339999999999</v>
-      </c>
-      <c r="U23">
-        <v>18.604310000000002</v>
-      </c>
-      <c r="V23">
-        <v>19.891400000000001</v>
-      </c>
-      <c r="W23">
-        <v>20.435369999999999</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>31</v>
@@ -5476,25 +9684,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.4844999999999999E-2</v>
-      </c>
-      <c r="R24">
-        <v>4.2944999999999997E-2</v>
-      </c>
-      <c r="S24">
-        <v>0.11450399999999999</v>
-      </c>
-      <c r="T24">
-        <v>0.122581</v>
-      </c>
-      <c r="U24">
-        <v>8.1966999999999998E-2</v>
-      </c>
-      <c r="V24">
-        <v>0.10274</v>
-      </c>
-      <c r="W24">
-        <v>6.2112000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="4" t="s">
         <v>38</v>
@@ -5539,24 +9729,6 @@
       </c>
       <c r="G25">
         <v>19.909859999999998</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>2.4844999999999999E-2</v>
       </c>
       <c r="AB25" s="4" t="s">
         <v>39</v>
@@ -5592,27 +9764,6 @@
       </c>
       <c r="G26">
         <v>7.8014E-2</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>72</v>
-      </c>
-      <c r="R26" t="s">
-        <v>49</v>
-      </c>
-      <c r="S26" t="s">
-        <v>50</v>
-      </c>
-      <c r="T26" t="s">
-        <v>51</v>
-      </c>
-      <c r="U26">
-        <v>17.137540000000001</v>
-      </c>
-      <c r="V26">
-        <v>19.218019999999999</v>
-      </c>
-      <c r="W26">
-        <v>19.909859999999998</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -5641,24 +9792,6 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="R27">
-        <v>3.8710000000000001E-2</v>
-      </c>
-      <c r="S27">
-        <v>4.7945000000000002E-2</v>
-      </c>
-      <c r="T27">
-        <v>7.9136999999999999E-2</v>
-      </c>
-      <c r="U27">
-        <v>0.142012</v>
-      </c>
-      <c r="V27">
-        <v>8.6957000000000007E-2</v>
-      </c>
-      <c r="W27">
-        <v>7.8014E-2</v>
-      </c>
       <c r="AB27" s="5" t="s">
         <v>40</v>
       </c>
@@ -5675,7 +9808,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>12.0410471</v>
@@ -5687,36 +9820,18 @@
         <v>15.120524400000001</v>
       </c>
       <c r="E28">
-        <v>16.769784900000001</v>
+        <v>16.8413</v>
       </c>
       <c r="F28">
         <v>17.387243300000002</v>
       </c>
       <c r="G28">
         <v>20.105234100000001</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>6.8490000000000001E-3</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>3.5503E-2</v>
-      </c>
-      <c r="V28">
-        <v>6.2110000000000004E-3</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>0.11612903225806449</v>
+        <v>0.11612903225806399</v>
       </c>
       <c r="C29">
         <v>0.15822784810126581</v>
@@ -5725,34 +9840,13 @@
         <v>8.6419753086419748E-2</v>
       </c>
       <c r="E29">
-        <v>9.815950920245399E-2</v>
+        <v>9.8484848484848481E-2</v>
       </c>
       <c r="F29">
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="G29">
         <v>9.6551724137931033E-2</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>73</v>
-      </c>
-      <c r="R29" t="s">
-        <v>53</v>
-      </c>
-      <c r="S29">
-        <v>14.480549999999999</v>
-      </c>
-      <c r="T29">
-        <v>15.120520000000001</v>
-      </c>
-      <c r="U29" t="s">
-        <v>54</v>
-      </c>
-      <c r="V29" t="s">
-        <v>55</v>
-      </c>
-      <c r="W29">
-        <v>17.51107</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -5766,42 +9860,24 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1.226993865030675E-2</v>
+        <v>2.2727272727272731E-2</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
         <v>6.8965517241379309E-3</v>
-      </c>
-      <c r="R30">
-        <v>0.116129</v>
-      </c>
-      <c r="S30">
-        <v>2.6144000000000001E-2</v>
-      </c>
-      <c r="T30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U30">
-        <v>0.126582</v>
-      </c>
-      <c r="V30">
-        <v>9.8485000000000003E-2</v>
-      </c>
-      <c r="W30">
-        <v>0.18421100000000001</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>14.480551699999999</v>
       </c>
       <c r="C31">
-        <v>16.568506200000002</v>
+        <v>16.769784900000001</v>
       </c>
       <c r="D31">
         <v>17.387243300000002</v>
@@ -5814,24 +9890,6 @@
       </c>
       <c r="G31">
         <v>24.190816900000002</v>
-      </c>
-      <c r="R31">
-        <v>1.9355000000000001E-2</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>1.2658000000000001E-2</v>
-      </c>
-      <c r="V31">
-        <v>2.2727000000000001E-2</v>
-      </c>
-      <c r="W31">
-        <v>3.9474000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
@@ -5839,7 +9897,7 @@
         <v>2.61437908496732E-2</v>
       </c>
       <c r="C32">
-        <v>0.17499999999999999</v>
+        <v>9.815950920245399E-2</v>
       </c>
       <c r="D32">
         <v>8.2191780821917804E-2</v>
@@ -5853,34 +9911,13 @@
       <c r="G32">
         <v>3.8216560509554139E-2</v>
       </c>
-      <c r="Q32" t="s">
-        <v>74</v>
-      </c>
-      <c r="R32" t="s">
-        <v>58</v>
-      </c>
-      <c r="S32">
-        <v>15.05729</v>
-      </c>
-      <c r="T32">
-        <v>15.93242</v>
-      </c>
-      <c r="U32">
-        <v>17.387239999999998</v>
-      </c>
-      <c r="V32">
-        <v>19.564509999999999</v>
-      </c>
-      <c r="W32">
-        <v>22.57715</v>
-      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>5.6250000000000001E-2</v>
+        <v>1.226993865030675E-2</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5894,28 +9931,10 @@
       <c r="G33">
         <v>6.369426751592357E-3</v>
       </c>
-      <c r="R33" t="s">
-        <v>59</v>
-      </c>
-      <c r="S33">
-        <v>9.7222000000000003E-2</v>
-      </c>
-      <c r="T33">
-        <v>0.126582</v>
-      </c>
-      <c r="U33">
-        <v>8.2192000000000001E-2</v>
-      </c>
-      <c r="V33">
-        <v>0.152778</v>
-      </c>
-      <c r="W33">
-        <v>7.2464000000000001E-2</v>
-      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>12.2164669</v>
@@ -5935,26 +9954,8 @@
       <c r="G34">
         <v>20.286180000000002</v>
       </c>
-      <c r="R34">
-        <v>2.5316000000000002E-2</v>
-      </c>
-      <c r="S34">
-        <v>6.9439999999999997E-3</v>
-      </c>
-      <c r="T34">
-        <v>1.2658000000000001E-2</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>4.8611000000000001E-2</v>
-      </c>
-      <c r="W34">
-        <v>2.1739000000000001E-2</v>
-      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>4.4117647058823532E-2</v>
       </c>
@@ -5973,29 +9974,8 @@
       <c r="G35">
         <v>5.4421768707482991E-2</v>
       </c>
-      <c r="Q35" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35">
-        <v>10.989990000000001</v>
-      </c>
-      <c r="S35">
-        <v>12.54238</v>
-      </c>
-      <c r="T35">
-        <v>13.101990000000001</v>
-      </c>
-      <c r="U35">
-        <v>13.82197</v>
-      </c>
-      <c r="V35">
-        <v>14.033810000000001</v>
-      </c>
-      <c r="W35" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>7.3529411764705881E-3</v>
       </c>
@@ -6014,28 +9994,10 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="R36">
-        <v>0.20805399999999999</v>
-      </c>
-      <c r="S36">
-        <v>8.9040999999999995E-2</v>
-      </c>
-      <c r="T36">
-        <v>8.4506999999999999E-2</v>
-      </c>
-      <c r="U36">
-        <v>4.9645000000000002E-2</v>
-      </c>
-      <c r="V36">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="W36">
-        <v>4.4872000000000002E-2</v>
-      </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>11.451359999999999</v>
@@ -6055,26 +10017,8 @@
       <c r="G37">
         <v>18.054780000000001</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>1.4085E-2</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.17721500000000001</v>
       </c>
@@ -6082,7 +10026,7 @@
         <v>0.107595</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>5.2239000000000001E-2</v>
@@ -6091,31 +10035,10 @@
         <v>1.8867999999999999E-2</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>75</v>
-      </c>
-      <c r="R38" t="s">
-        <v>62</v>
-      </c>
-      <c r="S38">
-        <v>13.070220000000001</v>
-      </c>
-      <c r="T38">
-        <v>14.28988</v>
-      </c>
-      <c r="U38">
-        <v>15.23424</v>
-      </c>
-      <c r="V38">
-        <v>17.674700000000001</v>
-      </c>
-      <c r="W38">
-        <v>18.054780000000001</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0</v>
       </c>
@@ -6134,28 +10057,10 @@
       <c r="G39">
         <v>6.711E-3</v>
       </c>
-      <c r="R39">
-        <v>0.17721500000000001</v>
-      </c>
-      <c r="S39">
-        <v>0.107595</v>
-      </c>
-      <c r="T39" t="s">
-        <v>63</v>
-      </c>
-      <c r="U39">
-        <v>5.2239000000000001E-2</v>
-      </c>
-      <c r="V39">
-        <v>1.8867999999999999E-2</v>
-      </c>
-      <c r="W39" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>11.685460000000001</v>
@@ -6175,26 +10080,8 @@
       <c r="G40">
         <v>17.132380000000001</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>1.2658000000000001E-2</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>6.2890000000000003E-3</v>
-      </c>
-      <c r="W40">
-        <v>6.711E-3</v>
-      </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>7.1942446043165464E-2</v>
       </c>
@@ -6214,7 +10101,7 @@
         <v>2.7397260273972601E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0</v>
       </c>
@@ -6234,9 +10121,9 @@
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>11.14471</v>
@@ -6257,7 +10144,7 @@
         <v>17.00572</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>6.8182000000000006E-2</v>
       </c>
@@ -6267,17 +10154,17 @@
       <c r="D44">
         <v>5.8333000000000003E-2</v>
       </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" t="s">
-        <v>67</v>
+      <c r="E44">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F44">
+        <v>2.027E-2</v>
       </c>
       <c r="G44">
         <v>2.7585999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>7.5760000000000003E-3</v>
       </c>
@@ -6297,72 +10184,14 @@
         <v>2.7585999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="Q47" t="s">
-        <v>65</v>
-      </c>
-      <c r="R47">
-        <v>11.14471</v>
-      </c>
-      <c r="S47">
-        <v>13.243840000000001</v>
-      </c>
-      <c r="T47">
-        <v>14.082940000000001</v>
-      </c>
-      <c r="U47">
-        <v>14.60941</v>
-      </c>
-      <c r="V47">
-        <v>15.441610000000001</v>
-      </c>
-      <c r="W47">
-        <v>17.00572</v>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R48">
-        <v>6.8182000000000006E-2</v>
-      </c>
-      <c r="S48">
-        <v>6.2068999999999999E-2</v>
-      </c>
-      <c r="T48">
-        <v>5.8333000000000003E-2</v>
-      </c>
-      <c r="U48" t="s">
-        <v>66</v>
-      </c>
-      <c r="V48" t="s">
-        <v>67</v>
-      </c>
-      <c r="W48">
-        <v>2.7585999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R49">
-        <v>7.5760000000000003E-3</v>
-      </c>
-      <c r="S49">
-        <v>2.7585999999999999E-2</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>2.7585999999999999E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <f>AVERAGE(B22,B25,B28,B31,B34,B37,B40,B43)</f>
@@ -6370,7 +10199,7 @@
       </c>
       <c r="C50">
         <f t="shared" ref="C50:G50" si="0">AVERAGE(C22,C25,C28,C31,C34,C37,C40,C43)</f>
-        <v>14.029672862500002</v>
+        <v>14.0548327</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
@@ -6378,7 +10207,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>16.762536550000004</v>
+        <v>16.771475937500004</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
@@ -6386,35 +10215,20 @@
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>19.640042625000003</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>68</v>
-      </c>
-      <c r="R50">
-        <v>11.87762</v>
-      </c>
-      <c r="S50">
-        <v>13.756159999999999</v>
-      </c>
-      <c r="T50">
-        <v>14.25089</v>
-      </c>
-      <c r="U50">
-        <v>15.285920000000001</v>
-      </c>
-      <c r="V50">
-        <v>17.00572</v>
+        <v>19.732205650000001</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
       <c r="B51">
         <f t="shared" ref="B51:G51" si="1">AVERAGE(B23,B26,B29,B32,B35,B38,B41,B44)</f>
-        <v>7.3173114526215832E-2</v>
+        <v>7.3173114526215777E-2</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>9.108427267932491E-2</v>
+        <v>8.1479211329631651E-2</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
@@ -6422,40 +10236,28 @@
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>8.6641915442606313E-2</v>
+        <v>7.9758593422579835E-2</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>8.0090362739765969E-2</v>
+        <v>7.2612817397295221E-2</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>5.4899901946991535E-2</v>
-      </c>
-      <c r="R51">
-        <v>6.5359E-2</v>
-      </c>
-      <c r="S51" t="s">
-        <v>69</v>
-      </c>
-      <c r="T51">
-        <v>4.7296999999999999E-2</v>
-      </c>
-      <c r="U51">
-        <v>1.9355000000000001E-2</v>
-      </c>
-      <c r="V51">
-        <v>2.7585999999999999E-2</v>
+        <v>5.5550568613658209E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
       <c r="B52">
         <f t="shared" ref="B52:G52" si="2">AVERAGE(B24,B27,B30,B33,B36,B39,B42,B45)</f>
         <v>4.2854724857685012E-3</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>1.7808622438215793E-2</v>
+        <v>1.2311114769504137E-2</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
@@ -6463,7 +10265,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>1.4001131220177234E-2</v>
+        <v>1.5308297979797981E-2</v>
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
@@ -6471,27 +10273,13 @@
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>1.0763326076589573E-2</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>8.0649999999999993E-3</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>1.9355000000000001E-2</v>
-      </c>
-      <c r="V52">
-        <v>2.7585999999999999E-2</v>
+        <v>7.6577010765895735E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/DataProcessing/LongtimeUse.xlsx
+++ b/Assets/DataProcessing/LongtimeUse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D3CA7-92CF-4E92-AD17-B353881E0BEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710554E1-D80E-40B0-A7E3-4242212588DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8434,8 +8434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Assets/DataProcessing/LongtimeUse.xlsx
+++ b/Assets/DataProcessing/LongtimeUse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710554E1-D80E-40B0-A7E3-4242212588DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B7B4DB-866E-4ABD-B289-994BB83C8157}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2894,6 +2894,538 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1858251209164892"/>
+          <c:y val="3.9795958341028267E-2"/>
+          <c:w val="0.66042749962858416"/>
+          <c:h val="0.82509265843377189"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.3173114526215777E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1479211329631651E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7886202058783169E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9758593422579835E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2612817397295221E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5550568613658209E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBBA-4438-9B55-BDD7899B96E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NCER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$52:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2854724857685012E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2311114769504137E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5308297979797981E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5748111370421457E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6577010765895735E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBBA-4438-9B55-BDD7899B96E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1182788192"/>
+        <c:axId val="1036213904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1182788192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46624841116558541"/>
+              <c:y val="0.92395167022032698"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036213904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1036213904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Mean Error Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8081761006289308E-2"/>
+              <c:y val="0.26127321771345741"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1182788192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80973934861915842"/>
+          <c:y val="5.5458854283901862E-2"/>
+          <c:w val="0.18250717088297672"/>
+          <c:h val="0.15256649646624768"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -3475,7 +4007,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4068,7 +4600,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4901,6 +5433,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6411,7 +6983,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6519,6 +7091,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6529,6 +7106,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6560,6 +7142,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7417,6 +8002,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8026,6 +9114,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4690F22D-D93D-4DD6-837F-EC42A21BCBDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8434,8 +9558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
